--- a/data_year/zb/就业人员和工资/按行业分私营企业和个体就业人员.xlsx
+++ b/data_year/zb/就业人员和工资/按行业分私营企业和个体就业人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,496 +478,310 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>385.1269</v>
+        <v>487.6284</v>
       </c>
       <c r="C2" t="n">
-        <v>688.0486</v>
+        <v>996.3678</v>
       </c>
       <c r="D2" t="n">
-        <v>2641.9369</v>
+        <v>4170.1576</v>
       </c>
       <c r="E2" t="n">
-        <v>591.2213</v>
+        <v>955.9929</v>
       </c>
       <c r="F2" t="n">
-        <v>324.8118</v>
+        <v>723.5259</v>
       </c>
       <c r="G2" t="n">
-        <v>3671.2285</v>
+        <v>6388.4657</v>
       </c>
       <c r="H2" t="n">
-        <v>9604.359399999999</v>
+        <v>16425.1404</v>
       </c>
       <c r="I2" t="n">
-        <v>285.4268</v>
+        <v>815.3828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398.8587</v>
+        <v>511.963</v>
       </c>
       <c r="C3" t="n">
-        <v>720.3381000000001</v>
+        <v>1072.398</v>
       </c>
       <c r="D3" t="n">
-        <v>2988.0844</v>
+        <v>4317.2493</v>
       </c>
       <c r="E3" t="n">
-        <v>649.6401</v>
+        <v>1083.1876</v>
       </c>
       <c r="F3" t="n">
-        <v>379.623</v>
+        <v>772.6815</v>
       </c>
       <c r="G3" t="n">
-        <v>4065.8298</v>
+        <v>7425.2572</v>
       </c>
       <c r="H3" t="n">
-        <v>10724.6068</v>
+        <v>18298.8946</v>
       </c>
       <c r="I3" t="n">
-        <v>385.9097</v>
+        <v>970.1475</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.797</v>
+        <v>837.6544</v>
       </c>
       <c r="C4" t="n">
-        <v>771.252</v>
+        <v>1161.9444</v>
       </c>
       <c r="D4" t="n">
-        <v>3345.9051</v>
+        <v>4467.8476</v>
       </c>
       <c r="E4" t="n">
-        <v>670.2556</v>
+        <v>1149.1269</v>
       </c>
       <c r="F4" t="n">
-        <v>419.3072</v>
+        <v>840.1518</v>
       </c>
       <c r="G4" t="n">
-        <v>4407.3028</v>
+        <v>7721.0301</v>
       </c>
       <c r="H4" t="n">
-        <v>11745.9736</v>
+        <v>19924.4373</v>
       </c>
       <c r="I4" t="n">
-        <v>462.0342</v>
+        <v>1119.5537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.6731</v>
+        <v>599.2166</v>
       </c>
       <c r="C5" t="n">
-        <v>801.173</v>
+        <v>1346.1626</v>
       </c>
       <c r="D5" t="n">
-        <v>3645.6598</v>
+        <v>4778.8607</v>
       </c>
       <c r="E5" t="n">
-        <v>706.5472</v>
+        <v>1216.7722</v>
       </c>
       <c r="F5" t="n">
-        <v>477.3126</v>
+        <v>976.3224</v>
       </c>
       <c r="G5" t="n">
-        <v>4771.7078</v>
+        <v>8749.380800000001</v>
       </c>
       <c r="H5" t="n">
-        <v>12749.2839</v>
+        <v>21857.2979</v>
       </c>
       <c r="I5" t="n">
-        <v>525.0162</v>
+        <v>1272.5539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451.3036</v>
+        <v>629.6181</v>
       </c>
       <c r="C6" t="n">
-        <v>860.1324</v>
+        <v>1547.9307</v>
       </c>
       <c r="D6" t="n">
-        <v>3715.5654</v>
+        <v>5074.2501</v>
       </c>
       <c r="E6" t="n">
-        <v>765.4982</v>
+        <v>1400.3622</v>
       </c>
       <c r="F6" t="n">
-        <v>563.4409000000001</v>
+        <v>1132.6486</v>
       </c>
       <c r="G6" t="n">
-        <v>5183.7351</v>
+        <v>10131.8301</v>
       </c>
       <c r="H6" t="n">
-        <v>13680.3895</v>
+        <v>24974.9586</v>
       </c>
       <c r="I6" t="n">
-        <v>613.1048</v>
+        <v>1598.4779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>512.6879</v>
+        <v>650.3973</v>
       </c>
       <c r="C7" t="n">
-        <v>916.0042999999999</v>
+        <v>1858.8297</v>
       </c>
       <c r="D7" t="n">
-        <v>3865.9892</v>
+        <v>5236.2469</v>
       </c>
       <c r="E7" t="n">
-        <v>851.0448</v>
+        <v>1555.4623</v>
       </c>
       <c r="F7" t="n">
-        <v>633.5622</v>
+        <v>1317.031</v>
       </c>
       <c r="G7" t="n">
-        <v>5961.723</v>
+        <v>11277.0284</v>
       </c>
       <c r="H7" t="n">
-        <v>15192.3451</v>
+        <v>28077.0593</v>
       </c>
       <c r="I7" t="n">
-        <v>732.7844</v>
+        <v>2086.8131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>487.6284</v>
+        <v>703.802</v>
       </c>
       <c r="C8" t="n">
-        <v>996.3678</v>
+        <v>2218.4503</v>
       </c>
       <c r="D8" t="n">
-        <v>4170.1576</v>
+        <v>5424.818</v>
       </c>
       <c r="E8" t="n">
-        <v>955.9929</v>
+        <v>1761.5797</v>
       </c>
       <c r="F8" t="n">
-        <v>723.5259</v>
+        <v>1431.7563</v>
       </c>
       <c r="G8" t="n">
-        <v>6388.4657</v>
+        <v>12252.2515</v>
       </c>
       <c r="H8" t="n">
-        <v>16425.1404</v>
+        <v>30859.1526</v>
       </c>
       <c r="I8" t="n">
-        <v>815.3828</v>
+        <v>2329.1804</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>511.963</v>
+        <v>808.6138999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>1072.398</v>
+        <v>2688.8334</v>
       </c>
       <c r="D9" t="n">
-        <v>4317.2493</v>
+        <v>5661.7234</v>
       </c>
       <c r="E9" t="n">
-        <v>1083.1876</v>
+        <v>2037.2347</v>
       </c>
       <c r="F9" t="n">
-        <v>772.6815</v>
+        <v>1569.0517</v>
       </c>
       <c r="G9" t="n">
-        <v>7425.2572</v>
+        <v>13265.8922</v>
       </c>
       <c r="H9" t="n">
-        <v>18298.8946</v>
+        <v>34106.9726</v>
       </c>
       <c r="I9" t="n">
-        <v>970.1475</v>
+        <v>2722.4737</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>837.6544</v>
+        <v>963.6793</v>
       </c>
       <c r="C10" t="n">
-        <v>1161.9444</v>
+        <v>2945.1217</v>
       </c>
       <c r="D10" t="n">
-        <v>4467.8476</v>
+        <v>5775.8418</v>
       </c>
       <c r="E10" t="n">
-        <v>1149.1269</v>
+        <v>2200.2271</v>
       </c>
       <c r="F10" t="n">
-        <v>840.1518</v>
+        <v>1765.383</v>
       </c>
       <c r="G10" t="n">
-        <v>7721.0301</v>
+        <v>14495.1661</v>
       </c>
       <c r="H10" t="n">
-        <v>19924.4373</v>
+        <v>37412.9919</v>
       </c>
       <c r="I10" t="n">
-        <v>1119.5537</v>
+        <v>3038.4282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>599.2166</v>
+        <v>1050.53</v>
       </c>
       <c r="C11" t="n">
-        <v>1346.1626</v>
+        <v>3294.9221</v>
       </c>
       <c r="D11" t="n">
-        <v>4778.8607</v>
+        <v>5907.3643</v>
       </c>
       <c r="E11" t="n">
-        <v>1216.7722</v>
+        <v>2552.8116</v>
       </c>
       <c r="F11" t="n">
-        <v>976.3224</v>
+        <v>2025.5613</v>
       </c>
       <c r="G11" t="n">
-        <v>8749.380800000001</v>
+        <v>15390.1748</v>
       </c>
       <c r="H11" t="n">
-        <v>21857.2979</v>
+        <v>40524.4284</v>
       </c>
       <c r="I11" t="n">
-        <v>1272.5539</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>629.6181</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1547.9307</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5074.2501</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1400.3622</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1132.6486</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10131.8301</v>
-      </c>
-      <c r="H12" t="n">
-        <v>24974.9586</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1598.4779</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>650.3973</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1858.8297</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5236.2469</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1555.4623</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1317.031</v>
-      </c>
-      <c r="G13" t="n">
-        <v>11277.0284</v>
-      </c>
-      <c r="H13" t="n">
-        <v>28077.0593</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2086.8131</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>703.802</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2218.4503</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5424.818</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1761.5797</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1431.7563</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12252.2515</v>
-      </c>
-      <c r="H14" t="n">
-        <v>30859.1526</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2329.1804</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>808.6138999999999</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2688.8334</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5661.7234</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2037.2347</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1569.0517</v>
-      </c>
-      <c r="G15" t="n">
-        <v>13265.8922</v>
-      </c>
-      <c r="H15" t="n">
-        <v>34106.9726</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2722.4737</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>963.6793</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2945.1217</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5775.8418</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2200.2271</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1765.383</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14495.1661</v>
-      </c>
-      <c r="H16" t="n">
-        <v>37412.9919</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3038.4282</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1050.53</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3294.9221</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5907.3643</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2552.8116</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2025.5613</v>
-      </c>
-      <c r="G17" t="n">
-        <v>15390.1748</v>
-      </c>
-      <c r="H17" t="n">
-        <v>40524.4284</v>
-      </c>
-      <c r="I17" t="n">
         <v>3388.3453</v>
       </c>
     </row>
